--- a/NetmindCourses/JJD311-DesarrolloAvanzadodeAppsparaAndroid5/JJD311-GuiaDidactica.xlsx
+++ b/NetmindCourses/JJD311-DesarrolloAvanzadodeAppsparaAndroid5/JJD311-GuiaDidactica.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t xml:space="preserve">  CONTENIDOS</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Pablo L. Sordo Martinez</t>
+  </si>
+  <si>
+    <t>JJD311</t>
+  </si>
+  <si>
+    <t>Desarrollo Avanzado de Apps para Android 5 Lollipop</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -655,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -689,13 +695,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,69 +791,72 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -862,14 +871,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +920,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -981,7 +993,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1480,28 +1492,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="67"/>
       <c r="C3"/>
       <c r="D3" s="48" t="s">
         <v>3</v>
@@ -1516,10 +1528,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="67"/>
       <c r="C5"/>
       <c r="D5" s="48" t="s">
         <v>6</v>
@@ -1533,10 +1545,10 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="67"/>
       <c r="C7"/>
       <c r="D7" s="48" t="s">
         <v>12</v>
@@ -1550,18 +1562,18 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
         <v>52</v>
@@ -1588,10 +1600,10 @@
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15">
         <v>1.3888888888888888E-2</v>
@@ -1604,10 +1616,10 @@
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
         <v>5.5555555555555601E-2</v>
@@ -1616,10 +1628,10 @@
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
         <v>3.4722222222222224E-2</v>
@@ -1630,42 +1642,42 @@
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="61"/>
@@ -1678,32 +1690,32 @@
     </row>
     <row r="21" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="61"/>
@@ -1956,8 +1968,8 @@
     </row>
     <row r="25" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="61"/>
@@ -2210,24 +2222,24 @@
     </row>
     <row r="26" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="71"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:252" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="61"/>
@@ -2246,10 +2258,10 @@
     </row>
     <row r="30" spans="1:252" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2504,10 +2516,10 @@
     </row>
     <row r="31" spans="1:252" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="87"/>
       <c r="E31" s="15">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -2761,10 +2773,10 @@
     </row>
     <row r="32" spans="1:252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="16">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -3314,26 +3326,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B30:C30"/>
@@ -3341,6 +3333,26 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3376,44 +3388,44 @@
   <sheetData>
     <row r="1" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="89"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="89"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3430,18 +3442,18 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="24"/>
       <c r="E5" s="1"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="88"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3458,18 +3470,18 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="24"/>
       <c r="E7" s="1"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4031,7 +4043,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4039,48 +4051,53 @@
     <col min="1" max="1" width="17.5703125" style="56" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="56"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="89"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="90"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4104,11 +4121,11 @@
       <c r="C5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="64" t="s">
         <v>46</v>
       </c>
@@ -4126,7 +4143,7 @@
       <c r="B6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="65">
         <v>42506</v>
       </c>
       <c r="D6" s="93" t="s">
@@ -4149,7 +4166,7 @@
       <c r="B7" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="65">
         <v>42506</v>
       </c>
       <c r="D7" s="93" t="s">
@@ -4169,9 +4186,9 @@
       <c r="A8" s="58"/>
       <c r="B8" s="53"/>
       <c r="C8" s="52"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
       <c r="I8" s="51"/>
@@ -4180,9 +4197,9 @@
       <c r="A9" s="58"/>
       <c r="B9" s="53"/>
       <c r="C9" s="52"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="51"/>
@@ -4191,9 +4208,9 @@
       <c r="A10" s="58"/>
       <c r="B10" s="53"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
       <c r="I10" s="51"/>
@@ -4202,9 +4219,9 @@
       <c r="A11" s="58"/>
       <c r="B11" s="53"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
       <c r="I11" s="51"/>
@@ -4213,9 +4230,9 @@
       <c r="A12" s="58"/>
       <c r="B12" s="53"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="51"/>
@@ -4224,9 +4241,9 @@
       <c r="A13" s="58"/>
       <c r="B13" s="53"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="51"/>
@@ -4235,9 +4252,9 @@
       <c r="A14" s="58"/>
       <c r="B14" s="53"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="51"/>
@@ -4246,29 +4263,29 @@
       <c r="A15" s="58"/>
       <c r="B15" s="53"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
       <c r="I15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4277,6 +4294,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007EBA8D50A5083C4EA2C3EBD51627644F" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="400127b600297157774000a52cbe4d9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfa4f809-bcba-4e04-929d-dfdfb4178c01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad31d7f07b4b31452b0ac2291e67bf71" ns2:_="">
     <xsd:import namespace="dfa4f809-bcba-4e04-929d-dfdfb4178c01"/>
@@ -4416,22 +4448,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EEE605-05CE-4C4C-91E5-152DCCA0FE25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739D7465-D9F4-4780-889F-9454554752E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89AA591D-401A-475F-876D-E316A40E3CF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4447,21 +4481,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739D7465-D9F4-4780-889F-9454554752E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EEE605-05CE-4C4C-91E5-152DCCA0FE25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>